--- a/assets/archivo.xlsx
+++ b/assets/archivo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>FECHA</t>
   </si>
@@ -50,60 +50,87 @@
     <t>OBSERVACION_APROBACION</t>
   </si>
   <si>
-    <t>2021-09-27</t>
+    <t>2021-09-30</t>
   </si>
   <si>
     <t>Jorler Ochoa</t>
   </si>
   <si>
-    <t>Barranquilla</t>
-  </si>
-  <si>
-    <t>Hospedaje</t>
-  </si>
-  <si>
-    <t>Taxi</t>
-  </si>
-  <si>
-    <t>Cienaga</t>
-  </si>
-  <si>
-    <t>Curumani</t>
-  </si>
-  <si>
-    <t>Lorem ipsum es el texto que se usa habitualmente en diseño gráfico en demostraciones de tipografías</t>
+    <t>Cali</t>
+  </si>
+  <si>
+    <t>Alimentación</t>
+  </si>
+  <si>
+    <t>Cena</t>
+  </si>
+  <si>
+    <t>Corinto</t>
+  </si>
+  <si>
+    <t>10,000</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t xml:space="preserve">            
             </t>
   </si>
   <si>
-    <t>2021-09-28</t>
-  </si>
-  <si>
-    <t>Bus Intermunicipal</t>
-  </si>
-  <si>
-    <t>Chiriguana</t>
-  </si>
-  <si>
-    <t>es</t>
-  </si>
-  <si>
     <t xml:space="preserve">            
             </t>
   </si>
   <si>
-    <t>Hotel</t>
-  </si>
-  <si>
-    <t>Baranoa</t>
-  </si>
-  <si>
-    <t>56,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            </t>
+    <t>2021-09-29</t>
+  </si>
+  <si>
+    <t>pedro perez</t>
+  </si>
+  <si>
+    <t>Desayuno</t>
+  </si>
+  <si>
+    <t>20,000</t>
+  </si>
+  <si>
+    <t>observacion prueba uno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok       
+            </t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>Bus Intermunicipal</t>
+  </si>
+  <si>
+    <t>30,000</t>
+  </si>
+  <si>
+    <t>observacion dos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ok
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            
+            </t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>Candelaria</t>
+  </si>
+  <si>
+    <t>600,000</t>
   </si>
 </sst>
 </file>
@@ -442,7 +469,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,13 +529,13 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
@@ -522,7 +549,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -534,33 +561,33 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -569,23 +596,130 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4"/>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
         <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/assets/archivo.xlsx
+++ b/assets/archivo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>FECHA</t>
   </si>
@@ -48,89 +48,6 @@
   </si>
   <si>
     <t>OBSERVACION_APROBACION</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>Jorler Ochoa</t>
-  </si>
-  <si>
-    <t>Cali</t>
-  </si>
-  <si>
-    <t>Alimentación</t>
-  </si>
-  <si>
-    <t>Cena</t>
-  </si>
-  <si>
-    <t>Corinto</t>
-  </si>
-  <si>
-    <t>10,000</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            
-            </t>
-  </si>
-  <si>
-    <t>2021-09-29</t>
-  </si>
-  <si>
-    <t>pedro perez</t>
-  </si>
-  <si>
-    <t>Desayuno</t>
-  </si>
-  <si>
-    <t>20,000</t>
-  </si>
-  <si>
-    <t>observacion prueba uno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ok       
-            </t>
-  </si>
-  <si>
-    <t>Transporte</t>
-  </si>
-  <si>
-    <t>Bus Intermunicipal</t>
-  </si>
-  <si>
-    <t>30,000</t>
-  </si>
-  <si>
-    <t>observacion dos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            ok
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            
-            </t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
-    <t>Otro</t>
-  </si>
-  <si>
-    <t>Candelaria</t>
-  </si>
-  <si>
-    <t>600,000</t>
   </si>
 </sst>
 </file>
@@ -469,7 +386,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,216 +427,6 @@
       </c>
       <c r="K1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/assets/archivo.xlsx
+++ b/assets/archivo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>FECHA</t>
   </si>
@@ -48,6 +48,36 @@
   </si>
   <si>
     <t>OBSERVACION_APROBACION</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>Jorler Ochoa</t>
+  </si>
+  <si>
+    <t>Cali</t>
+  </si>
+  <si>
+    <t>Alimentación</t>
+  </si>
+  <si>
+    <t>Cena</t>
+  </si>
+  <si>
+    <t>Corinto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            </t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>Bus Intermunicipal</t>
   </si>
 </sst>
 </file>
@@ -386,7 +416,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +457,72 @@
       </c>
       <c r="K1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>33</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/assets/archivo.xlsx
+++ b/assets/archivo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>FECHA</t>
   </si>
@@ -48,36 +48,6 @@
   </si>
   <si>
     <t>OBSERVACION_APROBACION</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>Jorler Ochoa</t>
-  </si>
-  <si>
-    <t>Cali</t>
-  </si>
-  <si>
-    <t>Alimentación</t>
-  </si>
-  <si>
-    <t>Cena</t>
-  </si>
-  <si>
-    <t>Corinto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            </t>
-  </si>
-  <si>
-    <t>2021-10-04</t>
-  </si>
-  <si>
-    <t>Transporte</t>
-  </si>
-  <si>
-    <t>Bus Intermunicipal</t>
   </si>
 </sst>
 </file>
@@ -416,7 +386,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,72 +427,6 @@
       </c>
       <c r="K1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>33</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/assets/archivo.xlsx
+++ b/assets/archivo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>FECHA</t>
   </si>
@@ -48,6 +48,41 @@
   </si>
   <si>
     <t>OBSERVACION_APROBACION</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>Jorler Ochoa</t>
+  </si>
+  <si>
+    <t>Cali</t>
+  </si>
+  <si>
+    <t>Alimentación</t>
+  </si>
+  <si>
+    <t>Cena</t>
+  </si>
+  <si>
+    <t>Corinto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            
+                            </t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>Bus Intermunicipal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            
+                            </t>
   </si>
 </sst>
 </file>
@@ -386,7 +421,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +462,72 @@
       </c>
       <c r="K1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>33</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
